--- a/BOM-Combined-AllComponents.xlsx
+++ b/BOM-Combined-AllComponents.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh+Gateway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E568AF-54B7-4931-BDB7-11F1CEE4AF7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-8970" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-8970" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="229">
   <si>
     <t>Component Name</t>
   </si>
@@ -477,9 +476,6 @@
     <t>WIFI MODULE 16MBITS SPI FLASH</t>
   </si>
   <si>
-    <t>MAX3485ESA+</t>
-  </si>
-  <si>
     <t>Transceiver RS422, RS485 1/1 10Mbps SOIC-8_150mil RS-485/RS-422 ICs RoHS</t>
   </si>
   <si>
@@ -489,12 +485,6 @@
     <t>Bidirectional 12V (Max), 7V (Max) 13.3V, 7.5V 26V, 12V 17A (8/20us) SOT-23(SOT-23-3) TVS RoHS</t>
   </si>
   <si>
-    <t>LMV844MA/NOPB</t>
-  </si>
-  <si>
-    <t>General Purpose 4 2.7V ~ 12V, ±1.35V ~ 6V 4.5MHz 2.5 V/us SOIC-14_150mil Operational Amplifiers RoHS</t>
-  </si>
-  <si>
     <t>AP1509-33SG-13</t>
   </si>
   <si>
@@ -712,13 +702,31 @@
   </si>
   <si>
     <t>KH-SMA-K513-G</t>
+  </si>
+  <si>
+    <t>TC7SB3157CFU</t>
+  </si>
+  <si>
+    <t>MAX485ESA+</t>
+  </si>
+  <si>
+    <t>TSA365G00-250</t>
+  </si>
+  <si>
+    <t>TSA365G00-251</t>
+  </si>
+  <si>
+    <t>Plunger for Cap 50mA @ 12VDC Round Button 250gf Phosphor bronzeOrBrass SMD Tactile Switches ROHS</t>
+  </si>
+  <si>
+    <t>mux/demux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +752,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -789,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,6 +821,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1801,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -1928,16 +1952,16 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -1945,101 +1969,101 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -2047,16 +2071,16 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -2064,67 +2088,67 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -2132,118 +2156,118 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -2251,50 +2275,50 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -2302,84 +2326,84 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -2387,50 +2411,50 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -2438,41 +2462,41 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>62</v>
@@ -2481,74 +2505,91 @@
         <v>61</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C86" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A1048576 B84 E84">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B83 B85:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D82 D85:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
